--- a/big5_main.xlsx
+++ b/big5_main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaxa\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Documents\GitHub\psyprediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A010CB-7B55-46A7-84D6-64B9793CC656}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC672C35-EEEB-48E7-89A0-D116EB0E4E07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="144">
   <si>
     <t>owner_id</t>
   </si>
@@ -373,13 +373,97 @@
   </si>
   <si>
     <t>http://psytests.org/result?v=pfqOd7evfPrBjKVaXPXB</t>
+  </si>
+  <si>
+    <t>https://vk.com/id58571762</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqQmIa-ZbjyzrJ7CuGc</t>
+  </si>
+  <si>
+    <t>https://vk.com/zaspa</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqSluVeKerzLbZuijX-</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqHArAvArAngzzzgzSn</t>
+  </si>
+  <si>
+    <t>https://vk.com/euloo</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqLedbBvAiwbCrzyPid</t>
+  </si>
+  <si>
+    <t>https://vk.com/id450044817</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqQfun_nNawaTXxyjnQ</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>https://vk.com/markov_d</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqPrrSPCvBzQrDvyvSv</t>
+  </si>
+  <si>
+    <t>https://vk.com/vlad43</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqPmsfhXAjRX-VtfAn-</t>
+  </si>
+  <si>
+    <t>https://vk.com/betanovalan</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqQjsnhfSefqeW9rDb_</t>
+  </si>
+  <si>
+    <t>https://vk.com/id153737603</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqJa8RrZsW8O7S-W8dv</t>
+  </si>
+  <si>
+    <t>https://vk.com/id5860598</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqMa7Wcawryj8ONahqs</t>
+  </si>
+  <si>
+    <t>https://vk.com/dad_box</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqMsqeoG9qgisVLGui_</t>
+  </si>
+  <si>
+    <t>https://vk.com/op_qwerty</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqOe-SuS_jAjLNaH_is</t>
+  </si>
+  <si>
+    <t>https://vk.com/id54459467</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqOO9fiayrwmvheGuax</t>
+  </si>
+  <si>
+    <t>https://vk.com/id.rocot</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqLj-iuWwuwvNSdPRb9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +487,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,14 +516,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -710,22 +802,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>183710909</v>
       </c>
@@ -774,7 +866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>71137975</v>
       </c>
@@ -797,7 +889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2198076</v>
       </c>
@@ -820,7 +912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>51506762</v>
       </c>
@@ -843,7 +935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60844320</v>
       </c>
@@ -866,7 +958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23264734</v>
       </c>
@@ -886,7 +978,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5746</v>
       </c>
@@ -906,7 +998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>87800902</v>
       </c>
@@ -926,7 +1018,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>34586489</v>
       </c>
@@ -946,7 +1038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>39768104</v>
       </c>
@@ -966,7 +1058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>344629016</v>
       </c>
@@ -989,7 +1081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26765936</v>
       </c>
@@ -1012,7 +1104,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2971903</v>
       </c>
@@ -1032,7 +1124,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3702231</v>
       </c>
@@ -1052,7 +1144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>159094254</v>
       </c>
@@ -1072,7 +1164,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>225287563</v>
       </c>
@@ -1092,7 +1184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50289601</v>
       </c>
@@ -1112,7 +1204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15765229</v>
       </c>
@@ -1132,7 +1224,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1152,7 +1244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>70085780</v>
       </c>
@@ -1172,7 +1264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>170224291</v>
       </c>
@@ -1192,7 +1284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>317998474</v>
       </c>
@@ -1212,7 +1304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>162909840</v>
       </c>
@@ -1232,7 +1324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1252,7 +1344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>60791124</v>
       </c>
@@ -1272,7 +1364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27058416</v>
       </c>
@@ -1292,7 +1384,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>94066719</v>
       </c>
@@ -1312,7 +1404,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6842801</v>
       </c>
@@ -1332,7 +1424,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15346136</v>
       </c>
@@ -1352,7 +1444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>157907116</v>
       </c>
@@ -1372,7 +1464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3421120</v>
       </c>
@@ -1392,7 +1484,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33212383</v>
       </c>
@@ -1412,7 +1504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20802612</v>
       </c>
@@ -1432,7 +1524,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28012667</v>
       </c>
@@ -1452,7 +1544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>107817343</v>
       </c>
@@ -1472,7 +1564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>267140490</v>
       </c>
@@ -1492,7 +1584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18910355</v>
       </c>
@@ -1512,7 +1604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>273780971</v>
       </c>
@@ -1532,7 +1624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1552,7 +1644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>478321</v>
       </c>
@@ -1572,7 +1664,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2412512</v>
       </c>
@@ -1592,7 +1684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38020195</v>
       </c>
@@ -1612,7 +1704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40527812</v>
       </c>
@@ -1632,7 +1724,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>34929794</v>
       </c>
@@ -1652,7 +1744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>196017324</v>
       </c>
@@ -1672,7 +1764,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50780197</v>
       </c>
@@ -1692,7 +1784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>199257129</v>
       </c>
@@ -1712,7 +1804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>96861114</v>
       </c>
@@ -1732,11 +1824,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>218406555</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C50" t="s">
@@ -1750,6 +1842,286 @@
       </c>
       <c r="G50" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>58571762</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51">
+        <v>96</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7533276</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52">
+        <v>221</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>38020195</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53">
+        <v>46</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>450044817</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55">
+        <v>110</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56">
+        <v>360</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>11534013</v>
+      </c>
+      <c r="B57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57">
+        <v>433</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1120219</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58">
+        <v>301</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>153737603</v>
+      </c>
+      <c r="B59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59">
+        <v>83</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5860598</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>16912447</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>18339148</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62">
+        <v>212</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>54459467</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63">
+        <v>204</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>32348202</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1762,8 +2134,13 @@
     <hyperlink ref="B31" r:id="rId6" xr:uid="{993FDBDA-15BA-4103-B866-B01D10827753}"/>
     <hyperlink ref="B44" r:id="rId7" xr:uid="{2D2C13B2-12AB-43F6-8154-CE366226A0B2}"/>
     <hyperlink ref="B47" r:id="rId8" xr:uid="{65EE6887-BC18-4176-A9EE-B12C28B5F119}"/>
+    <hyperlink ref="B50" r:id="rId9" xr:uid="{B6A9D0D4-5764-4904-ACAC-CA69C82615CB}"/>
+    <hyperlink ref="B51" r:id="rId10" xr:uid="{57CDC3CD-AB48-49EF-8012-70F4A1E9C75C}"/>
+    <hyperlink ref="B52" r:id="rId11" xr:uid="{7EA29862-3A14-4E81-BE34-6E21DB2E8607}"/>
+    <hyperlink ref="B53" r:id="rId12" xr:uid="{DB55D0E8-B35D-4CBA-B97E-B66E1998DCC1}"/>
+    <hyperlink ref="B64" r:id="rId13" xr:uid="{DAFE02E1-EA38-4840-A6E4-0B4DD0A7819E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/big5_main.xlsx
+++ b/big5_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irina\Documents\GitHub\psyprediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC672C35-EEEB-48E7-89A0-D116EB0E4E07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A4C4B2-DDED-4FE9-85CB-69FFA7C33DBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="150">
   <si>
     <t>owner_id</t>
   </si>
@@ -457,6 +457,24 @@
   </si>
   <si>
     <t>http://psytests.org/result?v=pfqLj-iuWwuwvNSdPRb9</t>
+  </si>
+  <si>
+    <t>https://vk.com/ekimovalex</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqOCrZZApR3RIR6CYBZ</t>
+  </si>
+  <si>
+    <t>https://vk.com/id175676662</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqKFHO9b-WOuhiwaByt</t>
+  </si>
+  <si>
+    <t>https://vk.com/vitdrav</t>
+  </si>
+  <si>
+    <t>http://psytests.org/result?v=pfqSnhq9mcXBZ6BYjinS</t>
   </si>
 </sst>
 </file>
@@ -802,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,6 +2140,66 @@
       </c>
       <c r="G64" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>202230988</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>175676662</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>198662572</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67">
+        <v>115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
